--- a/data/trans_orig/P33b_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90D44438-B25C-451E-AC3E-444C229A9D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F23F56F6-EA95-4298-9D2C-710916465221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05E9CBCC-4570-43E5-9ABF-88FCC3E112B0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E23249F-B733-425E-8CE0-B2F91789595F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>10,52%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>89,48%</t>
   </si>
   <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>83,12%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>17,3%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>75,07%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>78,74%</t>
   </si>
   <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,49 +194,55 @@
     <t>12,99%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>20,59%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>77,32%</t>
   </si>
   <si>
-    <t>79,41%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -245,55 +251,55 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>84,85%</t>
   </si>
   <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -302,43 +308,46 @@
     <t>15,85%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
+    <t>18,07%</t>
+  </si>
+  <si>
     <t>21,44%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>80,22%</t>
@@ -347,58 +356,61 @@
     <t>78,56%</t>
   </si>
   <si>
+    <t>81,93%</t>
+  </si>
+  <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13161A2C-DB6E-4A81-82FD-D1FB3548A5FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CA8EA5-C1DA-4812-8D21-35675F6FEB06}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1268,7 +1280,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>526</v>
@@ -1277,13 +1289,13 @@
         <v>375302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,13 +1310,13 @@
         <v>904211</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1142</v>
@@ -1313,13 +1325,13 @@
         <v>819209</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1954</v>
@@ -1328,13 +1340,13 @@
         <v>1723420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,7 +1402,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1402,13 +1414,13 @@
         <v>90749</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -1417,13 +1429,13 @@
         <v>152138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>318</v>
@@ -1432,13 +1444,13 @@
         <v>242887</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,13 +1465,13 @@
         <v>638023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>824</v>
@@ -1468,13 +1480,13 @@
         <v>722233</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1405</v>
@@ -1483,13 +1495,13 @@
         <v>1360255</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,7 +1557,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1557,13 +1569,13 @@
         <v>153058</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>405</v>
@@ -1572,13 +1584,13 @@
         <v>264914</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>585</v>
@@ -1587,13 +1599,13 @@
         <v>417972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,28 +1620,28 @@
         <v>812345</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>1156</v>
       </c>
       <c r="I17" s="7">
-        <v>882755</v>
+        <v>882756</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1982</v>
@@ -1638,13 +1650,13 @@
         <v>1695101</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,7 +1683,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>1147670</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1712,13 +1724,13 @@
         <v>484581</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1309</v>
@@ -1727,13 +1739,13 @@
         <v>826960</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1861</v>
@@ -1742,13 +1754,13 @@
         <v>1311541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1775,13 @@
         <v>2899570</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>4052</v>
@@ -1778,13 +1790,13 @@
         <v>2977298</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6875</v>
@@ -1793,13 +1805,13 @@
         <v>5876868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F23F56F6-EA95-4298-9D2C-710916465221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA3E81DE-F01A-41EF-9E1F-DE4C67B87497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E23249F-B733-425E-8CE0-B2F91789595F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D01D6A12-AED5-4FCC-A929-BA85F6A2967C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>17,3%</t>
@@ -188,7 +188,7 @@
     <t>80,88%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>12,99%</t>
@@ -245,7 +245,7 @@
     <t>83,79%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>12,45%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CA8EA5-C1DA-4812-8D21-35675F6FEB06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402867F7-BCE7-4393-B1FA-2A06FE71344B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA3E81DE-F01A-41EF-9E1F-DE4C67B87497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69AEAA92-03A8-45C6-B29F-77A19339007B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D01D6A12-AED5-4FCC-A929-BA85F6A2967C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85AC977A-B98E-47FE-9749-F7BB45FC63F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>10,52%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>89,48%</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>83,12%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>17,3%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>75,07%</t>
   </si>
   <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
   </si>
   <si>
     <t>78,74%</t>
   </si>
   <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,49 @@
     <t>12,99%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
+    <t>20,59%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>77,32%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>79,41%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +245,55 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>84,85%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,46 +302,43 @@
     <t>15,85%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
     <t>21,44%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>80,22%</t>
@@ -356,61 +347,58 @@
     <t>78,56%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402867F7-BCE7-4393-B1FA-2A06FE71344B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7669580A-724C-4603-8533-2FFE0DEC5824}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1280,7 +1268,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>526</v>
@@ -1289,13 +1277,13 @@
         <v>375302</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,13 +1298,13 @@
         <v>904211</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1142</v>
@@ -1325,13 +1313,13 @@
         <v>819209</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1954</v>
@@ -1340,13 +1328,13 @@
         <v>1723420</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,7 +1390,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1414,13 +1402,13 @@
         <v>90749</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -1429,13 +1417,13 @@
         <v>152138</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>318</v>
@@ -1444,13 +1432,13 @@
         <v>242887</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,13 +1453,13 @@
         <v>638023</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>824</v>
@@ -1480,13 +1468,13 @@
         <v>722233</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1405</v>
@@ -1495,13 +1483,13 @@
         <v>1360255</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,7 +1545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1557,13 @@
         <v>153058</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>405</v>
@@ -1584,13 +1572,13 @@
         <v>264914</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>585</v>
@@ -1599,13 +1587,13 @@
         <v>417972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,28 +1608,28 @@
         <v>812345</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>1156</v>
       </c>
       <c r="I17" s="7">
-        <v>882756</v>
+        <v>882755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1982</v>
@@ -1650,13 +1638,13 @@
         <v>1695101</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,7 +1671,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147670</v>
+        <v>1147669</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1724,13 +1712,13 @@
         <v>484581</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>1309</v>
@@ -1739,13 +1727,13 @@
         <v>826960</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>1861</v>
@@ -1754,13 +1742,13 @@
         <v>1311541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1763,13 @@
         <v>2899570</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>4052</v>
@@ -1790,13 +1778,13 @@
         <v>2977298</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6875</v>
@@ -1805,13 +1793,13 @@
         <v>5876868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69AEAA92-03A8-45C6-B29F-77A19339007B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E58003B-03BB-4DB7-827A-FB6862158F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85AC977A-B98E-47FE-9749-F7BB45FC63F4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B2E6EA70-B3A8-4BB0-98B1-D6FE6B9B1550}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,340 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>83,12%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7669580A-724C-4603-8533-2FFE0DEC5824}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA31742-B275-472C-9254-1BDA24D89EB5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -931,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="D4" s="7">
-        <v>10618</v>
+        <v>100349</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>47</v>
+        <v>307</v>
       </c>
       <c r="I4" s="7">
-        <v>22063</v>
+        <v>156040</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -961,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>61</v>
+        <v>432</v>
       </c>
       <c r="N4" s="7">
-        <v>32681</v>
+        <v>256388</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -982,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>604</v>
       </c>
       <c r="D5" s="7">
-        <v>90287</v>
+        <v>534063</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -997,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>196</v>
+        <v>930</v>
       </c>
       <c r="I5" s="7">
-        <v>108670</v>
+        <v>518827</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1012,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>299</v>
+        <v>1534</v>
       </c>
       <c r="N5" s="7">
-        <v>198957</v>
+        <v>1052891</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1033,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>634412</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1048,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674867</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1063,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1966</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1309279</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1086,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="D7" s="7">
-        <v>95119</v>
+        <v>125727</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1101,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>260</v>
+        <v>374</v>
       </c>
       <c r="I7" s="7">
-        <v>147580</v>
+        <v>215997</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1116,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>371</v>
+        <v>526</v>
       </c>
       <c r="N7" s="7">
-        <v>242700</v>
+        <v>341724</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1137,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>501</v>
+        <v>812</v>
       </c>
       <c r="D8" s="7">
-        <v>454704</v>
+        <v>1067137</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1152,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>734</v>
+        <v>1142</v>
       </c>
       <c r="I8" s="7">
-        <v>444431</v>
+        <v>742109</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1167,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1235</v>
+        <v>1954</v>
       </c>
       <c r="N8" s="7">
-        <v>899134</v>
+        <v>1809247</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1188,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1203,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592011</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1218,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1141834</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1241,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="D10" s="7">
-        <v>135037</v>
+        <v>84666</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1256,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>374</v>
+        <v>223</v>
       </c>
       <c r="I10" s="7">
-        <v>240265</v>
+        <v>137164</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1268,22 +1223,22 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>526</v>
+        <v>318</v>
       </c>
       <c r="N10" s="7">
-        <v>375302</v>
+        <v>221830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>812</v>
+        <v>581</v>
       </c>
       <c r="D11" s="7">
-        <v>904211</v>
+        <v>620014</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1142</v>
+        <v>824</v>
       </c>
       <c r="I11" s="7">
-        <v>819209</v>
+        <v>796202</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1954</v>
+        <v>1405</v>
       </c>
       <c r="N11" s="7">
-        <v>1723420</v>
+        <v>1416216</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1358,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1373,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1390,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="D13" s="7">
-        <v>90749</v>
+        <v>143054</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="I13" s="7">
-        <v>152138</v>
+        <v>238724</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>318</v>
+        <v>585</v>
       </c>
       <c r="N13" s="7">
-        <v>242887</v>
+        <v>381778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>581</v>
+        <v>826</v>
       </c>
       <c r="D14" s="7">
-        <v>638023</v>
+        <v>783777</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>824</v>
+        <v>1156</v>
       </c>
       <c r="I14" s="7">
-        <v>722233</v>
+        <v>853869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1405</v>
+        <v>1982</v>
       </c>
       <c r="N14" s="7">
-        <v>1360255</v>
+        <v>1637646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1513,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1092593</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1528,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2567</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019424</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1545,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>180</v>
+        <v>552</v>
       </c>
       <c r="D16" s="7">
-        <v>153058</v>
+        <v>453796</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>405</v>
+        <v>1309</v>
       </c>
       <c r="I16" s="7">
-        <v>264914</v>
+        <v>747925</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>585</v>
+        <v>1861</v>
       </c>
       <c r="N16" s="7">
-        <v>417972</v>
+        <v>1201720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>826</v>
+        <v>2823</v>
       </c>
       <c r="D17" s="7">
-        <v>812345</v>
+        <v>3004991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>1156</v>
+        <v>4052</v>
       </c>
       <c r="I17" s="7">
-        <v>882755</v>
+        <v>2911007</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1982</v>
+        <v>6875</v>
       </c>
       <c r="N17" s="7">
-        <v>1695101</v>
+        <v>5915999</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458787</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1668,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5361</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>3658932</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1683,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2567</v>
+        <v>8736</v>
       </c>
       <c r="N18" s="7">
-        <v>2113073</v>
+        <v>7117719</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1699,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>552</v>
-      </c>
-      <c r="D19" s="7">
-        <v>484581</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1309</v>
-      </c>
-      <c r="I19" s="7">
-        <v>826960</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1861</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1311541</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2823</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2899570</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4052</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2977298</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6875</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5876868</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384151</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5361</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3804258</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8736</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7188409</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
